--- a/biology/Botanique/Arthur_Roy_Clapham/Arthur_Roy_Clapham.xlsx
+++ b/biology/Botanique/Arthur_Roy_Clapham/Arthur_Roy_Clapham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Roy Clapham est un botaniste et un écologue britannique, né le 24 mai 1904 à Norwich et mort le 18 décembre 1990.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est George Clapham, maître d’école. Il grandit à Norwich et passe ses vacances scolaires dans la ferme d’un oncle maternel à Forncett. Il y développe son intérêt pour la nature et les plantes en particulier. Il part poursuivre ses études au Downing College de Cambridge où il suit les cours de Frederick Frost Blackman (1866-1947) et de George Edward Briggs (1893-1985). Il est surtout influencé par Humphrey Gilbert-Carter (1884-1969). Il se lie d’amitié avec Sir Harry Godwin (1901-1985).
 En 1927, il commence à travailler à la station expérimentale de Rothamsted. L’année suivante, il commence à travailler avec Sir Ronald Aylmer Fisher (1890-1962) sur le développement de méthode d’échantillonnage pour des essais de terrain. Il se spécialise alors sur l’emploi de méthode statistique, qu’il utilisera durant le reste de sa carrière. C’est durant ses recherches qu’il rencontre sa future femme, Brenda Stoessiger, étudiante auprès de Karl Pearson (1857-1936) à l’University College de Londres. Ils se marient en mars 1933.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Donald Pigott (1992). Obituary: Arthur Roy Clapham, CBE, FRS (1904-1990), Journal of Ecology, 80 (2) : 361-365.</t>
         </is>
